--- a/Migrade_v.1.2/media/excel-files/GRADE 4-6_SUMMARY FINAL GRADES.xlsx
+++ b/Migrade_v.1.2/media/excel-files/GRADE 4-6_SUMMARY FINAL GRADES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20408"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelo\Documents\GitHub\ces_migrade\MiGrade\Migrade_v.1.2\media\excel-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\MiGrade\Migrade_v.1.2\media\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9C6A01-9268-4822-B4DE-4E69A9C50F57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBC1723-3951-4225-9306-6EADD9A125AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155" tabRatio="536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SUMMARY - FINAL GRADES'!$7:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0;;"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0;;"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1023,7 +1023,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
@@ -1062,16 +1062,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1087,38 +1087,38 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1637,6 +1637,110 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1673,7 +1777,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1689,86 +1793,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1791,30 +1815,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2296,11 +2296,11 @@
   </sheetPr>
   <dimension ref="A1:DA112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AT11" sqref="AT11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="3" customWidth="1"/>
@@ -2330,57 +2330,57 @@
     <col min="106" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" ht="30">
-      <c r="B1" s="182" t="s">
+    <row r="1" spans="1:105" ht="30" x14ac:dyDescent="0.2">
+      <c r="B1" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="182"/>
-      <c r="T1" s="182"/>
-      <c r="U1" s="182"/>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="182"/>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="182"/>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="182"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="182"/>
-      <c r="AH1" s="182"/>
-      <c r="AI1" s="182"/>
-      <c r="AJ1" s="182"/>
-      <c r="AK1" s="182"/>
-      <c r="AL1" s="182"/>
-      <c r="AM1" s="182"/>
-      <c r="AN1" s="182"/>
-      <c r="AO1" s="182"/>
-      <c r="AP1" s="182"/>
-      <c r="AQ1" s="182"/>
-      <c r="AR1" s="182"/>
-      <c r="AS1" s="182"/>
-      <c r="AT1" s="182"/>
-      <c r="AU1" s="182"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="159"/>
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="159"/>
+      <c r="AG1" s="159"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="159"/>
+      <c r="AJ1" s="159"/>
+      <c r="AK1" s="159"/>
+      <c r="AL1" s="159"/>
+      <c r="AM1" s="159"/>
+      <c r="AN1" s="159"/>
+      <c r="AO1" s="159"/>
+      <c r="AP1" s="159"/>
+      <c r="AQ1" s="159"/>
+      <c r="AR1" s="159"/>
+      <c r="AS1" s="159"/>
+      <c r="AT1" s="159"/>
+      <c r="AU1" s="159"/>
     </row>
-    <row r="2" spans="1:105">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.2">
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2419,35 +2419,35 @@
       <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
     </row>
-    <row r="3" spans="1:105" ht="20.25" customHeight="1">
-      <c r="C3" s="169" t="s">
+    <row r="3" spans="1:105" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="203"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="168" t="s">
+      <c r="R3" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="194"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="184"/>
       <c r="AA3" s="10"/>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
@@ -2459,17 +2459,17 @@
       <c r="AG3" s="11"/>
       <c r="AH3" s="11"/>
       <c r="AI3" s="12"/>
-      <c r="AK3" s="198"/>
-      <c r="AL3" s="199"/>
-      <c r="AM3" s="199"/>
-      <c r="AN3" s="199"/>
-      <c r="AO3" s="199"/>
-      <c r="AP3" s="200"/>
+      <c r="AK3" s="182"/>
+      <c r="AL3" s="183"/>
+      <c r="AM3" s="183"/>
+      <c r="AN3" s="183"/>
+      <c r="AO3" s="183"/>
+      <c r="AP3" s="184"/>
       <c r="AQ3" s="13"/>
       <c r="AR3" s="13"/>
       <c r="AS3" s="13"/>
     </row>
-    <row r="4" spans="1:105" ht="10.5" customHeight="1">
+    <row r="4" spans="1:105" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="F4" s="1"/>
@@ -2506,7 +2506,7 @@
       <c r="AR4" s="13"/>
       <c r="AS4" s="13"/>
     </row>
-    <row r="5" spans="1:105" ht="20.25" customHeight="1">
+    <row r="5" spans="1:105" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="24" t="s">
@@ -2514,50 +2514,50 @@
       </c>
       <c r="D5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="202"/>
-      <c r="P5" s="203"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="181"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="168" t="s">
+      <c r="R5" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="199"/>
-      <c r="W5" s="199"/>
-      <c r="X5" s="199"/>
-      <c r="Y5" s="199"/>
-      <c r="Z5" s="200"/>
+      <c r="S5" s="194"/>
+      <c r="T5" s="194"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="183"/>
+      <c r="W5" s="183"/>
+      <c r="X5" s="183"/>
+      <c r="Y5" s="183"/>
+      <c r="Z5" s="184"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="171" t="s">
+      <c r="AE5" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="AF5" s="171"/>
-      <c r="AG5" s="171"/>
-      <c r="AH5" s="171"/>
-      <c r="AI5" s="171"/>
-      <c r="AK5" s="198"/>
-      <c r="AL5" s="199"/>
-      <c r="AM5" s="199"/>
-      <c r="AN5" s="199"/>
-      <c r="AO5" s="199"/>
-      <c r="AP5" s="200"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AK5" s="182"/>
+      <c r="AL5" s="183"/>
+      <c r="AM5" s="183"/>
+      <c r="AN5" s="183"/>
+      <c r="AO5" s="183"/>
+      <c r="AP5" s="184"/>
       <c r="AQ5" s="13"/>
       <c r="AR5" s="13"/>
       <c r="AS5" s="13"/>
     </row>
-    <row r="6" spans="1:105" ht="18.75" customHeight="1" thickBot="1">
+    <row r="6" spans="1:105" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2601,72 +2601,72 @@
       <c r="AO6" s="13"/>
       <c r="AP6" s="13"/>
     </row>
-    <row r="7" spans="1:105" s="27" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A7" s="162" t="s">
+    <row r="7" spans="1:105" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="186" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="189" t="s">
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="186" t="s">
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="188"/>
-      <c r="U7" s="189" t="s">
+      <c r="Q7" s="164"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="190"/>
-      <c r="Z7" s="179" t="s">
+      <c r="V7" s="167"/>
+      <c r="W7" s="167"/>
+      <c r="X7" s="167"/>
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="180"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="181"/>
-      <c r="AE7" s="191" t="s">
+      <c r="AA7" s="167"/>
+      <c r="AB7" s="167"/>
+      <c r="AC7" s="167"/>
+      <c r="AD7" s="171"/>
+      <c r="AE7" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="AF7" s="191"/>
-      <c r="AG7" s="191"/>
-      <c r="AH7" s="191"/>
-      <c r="AI7" s="191"/>
-      <c r="AJ7" s="179" t="s">
+      <c r="AF7" s="169"/>
+      <c r="AG7" s="169"/>
+      <c r="AH7" s="169"/>
+      <c r="AI7" s="169"/>
+      <c r="AJ7" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="AK7" s="180"/>
-      <c r="AL7" s="180"/>
-      <c r="AM7" s="180"/>
-      <c r="AN7" s="181"/>
-      <c r="AO7" s="189" t="s">
+      <c r="AK7" s="167"/>
+      <c r="AL7" s="167"/>
+      <c r="AM7" s="167"/>
+      <c r="AN7" s="171"/>
+      <c r="AO7" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="AP7" s="180"/>
-      <c r="AQ7" s="180"/>
-      <c r="AR7" s="180"/>
-      <c r="AS7" s="190"/>
-      <c r="AT7" s="183"/>
-      <c r="AU7" s="159" t="s">
+      <c r="AP7" s="167"/>
+      <c r="AQ7" s="167"/>
+      <c r="AR7" s="167"/>
+      <c r="AS7" s="168"/>
+      <c r="AT7" s="160"/>
+      <c r="AU7" s="185" t="s">
         <v>1</v>
       </c>
       <c r="AV7" s="26"/>
@@ -2728,86 +2728,86 @@
       <c r="CZ7" s="26"/>
       <c r="DA7" s="26"/>
     </row>
-    <row r="8" spans="1:105" s="27" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A8" s="164"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="174" t="s">
+    <row r="8" spans="1:105" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="177" t="s">
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="175" t="s">
+      <c r="K8" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="172" t="s">
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="174" t="s">
+      <c r="P8" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="177" t="s">
+      <c r="Q8" s="173"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="175" t="s">
+      <c r="U8" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="176"/>
-      <c r="Y8" s="172" t="s">
+      <c r="V8" s="173"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="174"/>
+      <c r="Y8" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="174" t="s">
+      <c r="Z8" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="177" t="s">
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="174"/>
+      <c r="AD8" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="AE8" s="175" t="s">
+      <c r="AE8" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="176"/>
-      <c r="AI8" s="172" t="s">
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="174"/>
+      <c r="AI8" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="AJ8" s="174" t="s">
+      <c r="AJ8" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="AK8" s="175"/>
-      <c r="AL8" s="175"/>
-      <c r="AM8" s="176"/>
-      <c r="AN8" s="177" t="s">
+      <c r="AK8" s="173"/>
+      <c r="AL8" s="173"/>
+      <c r="AM8" s="174"/>
+      <c r="AN8" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="AO8" s="175" t="s">
+      <c r="AO8" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="AP8" s="175"/>
-      <c r="AQ8" s="175"/>
-      <c r="AR8" s="176"/>
-      <c r="AS8" s="172" t="s">
+      <c r="AP8" s="173"/>
+      <c r="AQ8" s="173"/>
+      <c r="AR8" s="174"/>
+      <c r="AS8" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="AT8" s="184"/>
-      <c r="AU8" s="160"/>
+      <c r="AT8" s="161"/>
+      <c r="AU8" s="186"/>
       <c r="AV8" s="26"/>
       <c r="AW8" s="26"/>
       <c r="AX8" s="26"/>
@@ -2867,12 +2867,12 @@
       <c r="CZ8" s="26"/>
       <c r="DA8" s="26"/>
     </row>
-    <row r="9" spans="1:105" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="166"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
+    <row r="9" spans="1:105" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="192"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
       <c r="F9" s="28">
         <v>1</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="I9" s="29">
         <v>4</v>
       </c>
-      <c r="J9" s="178"/>
+      <c r="J9" s="176"/>
       <c r="K9" s="30">
         <v>1</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="N9" s="29">
         <v>4</v>
       </c>
-      <c r="O9" s="173"/>
+      <c r="O9" s="178"/>
       <c r="P9" s="28">
         <v>1</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="S9" s="29">
         <v>4</v>
       </c>
-      <c r="T9" s="178"/>
+      <c r="T9" s="176"/>
       <c r="U9" s="30">
         <v>1</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="X9" s="29">
         <v>4</v>
       </c>
-      <c r="Y9" s="173"/>
+      <c r="Y9" s="178"/>
       <c r="Z9" s="28">
         <v>1</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="AC9" s="29">
         <v>4</v>
       </c>
-      <c r="AD9" s="178"/>
+      <c r="AD9" s="176"/>
       <c r="AE9" s="30">
         <v>1</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="AH9" s="29">
         <v>4</v>
       </c>
-      <c r="AI9" s="173"/>
+      <c r="AI9" s="178"/>
       <c r="AJ9" s="28">
         <v>1</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="AM9" s="29">
         <v>4</v>
       </c>
-      <c r="AN9" s="178"/>
+      <c r="AN9" s="176"/>
       <c r="AO9" s="30">
         <v>1</v>
       </c>
@@ -2976,9 +2976,9 @@
       <c r="AR9" s="29">
         <v>4</v>
       </c>
-      <c r="AS9" s="173"/>
-      <c r="AT9" s="185"/>
-      <c r="AU9" s="161"/>
+      <c r="AS9" s="178"/>
+      <c r="AT9" s="162"/>
+      <c r="AU9" s="187"/>
       <c r="AV9" s="26"/>
       <c r="AW9" s="26"/>
       <c r="AX9" s="26"/>
@@ -3038,7 +3038,7 @@
       <c r="CZ9" s="26"/>
       <c r="DA9" s="26"/>
     </row>
-    <row r="10" spans="1:105" s="27" customFormat="1" ht="15">
+    <row r="10" spans="1:105" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="32" t="s">
         <v>5</v>
@@ -3147,14 +3147,14 @@
       <c r="CZ10" s="26"/>
       <c r="DA10" s="26"/>
     </row>
-    <row r="11" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="11" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>1</v>
       </c>
-      <c r="B11" s="192"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="200"/>
       <c r="F11" s="41"/>
       <c r="G11" s="42"/>
       <c r="H11" s="43"/>
@@ -3286,14 +3286,14 @@
       <c r="CZ11" s="59"/>
       <c r="DA11" s="59"/>
     </row>
-    <row r="12" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="12" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>2</v>
       </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="194"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="200"/>
       <c r="F12" s="41"/>
       <c r="G12" s="42"/>
       <c r="H12" s="43"/>
@@ -3425,14 +3425,14 @@
       <c r="CZ12" s="59"/>
       <c r="DA12" s="59"/>
     </row>
-    <row r="13" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="13" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>3</v>
       </c>
-      <c r="B13" s="192"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="194"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="200"/>
       <c r="F13" s="41"/>
       <c r="G13" s="42"/>
       <c r="H13" s="43"/>
@@ -3564,14 +3564,14 @@
       <c r="CZ13" s="59"/>
       <c r="DA13" s="59"/>
     </row>
-    <row r="14" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="14" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>4</v>
       </c>
-      <c r="B14" s="192"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="194"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="200"/>
       <c r="F14" s="41"/>
       <c r="G14" s="42"/>
       <c r="H14" s="43"/>
@@ -3703,14 +3703,14 @@
       <c r="CZ14" s="59"/>
       <c r="DA14" s="59"/>
     </row>
-    <row r="15" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="15" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>5</v>
       </c>
-      <c r="B15" s="192"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="194"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="200"/>
       <c r="F15" s="41"/>
       <c r="G15" s="42"/>
       <c r="H15" s="43"/>
@@ -3842,14 +3842,14 @@
       <c r="CZ15" s="59"/>
       <c r="DA15" s="59"/>
     </row>
-    <row r="16" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="16" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>6</v>
       </c>
-      <c r="B16" s="192"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="194"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="200"/>
       <c r="F16" s="41"/>
       <c r="G16" s="42"/>
       <c r="H16" s="43"/>
@@ -3981,14 +3981,14 @@
       <c r="CZ16" s="59"/>
       <c r="DA16" s="59"/>
     </row>
-    <row r="17" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="17" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>7</v>
       </c>
-      <c r="B17" s="192"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="194"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="200"/>
       <c r="F17" s="41"/>
       <c r="G17" s="42"/>
       <c r="H17" s="43"/>
@@ -4120,14 +4120,14 @@
       <c r="CZ17" s="59"/>
       <c r="DA17" s="59"/>
     </row>
-    <row r="18" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="18" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>8</v>
       </c>
-      <c r="B18" s="192"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="194"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="200"/>
       <c r="F18" s="41"/>
       <c r="G18" s="42"/>
       <c r="H18" s="43"/>
@@ -4259,14 +4259,14 @@
       <c r="CZ18" s="59"/>
       <c r="DA18" s="59"/>
     </row>
-    <row r="19" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="19" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>9</v>
       </c>
-      <c r="B19" s="192"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="194"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="200"/>
       <c r="F19" s="41"/>
       <c r="G19" s="42"/>
       <c r="H19" s="43"/>
@@ -4398,14 +4398,14 @@
       <c r="CZ19" s="59"/>
       <c r="DA19" s="59"/>
     </row>
-    <row r="20" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="20" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>10</v>
       </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="194"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="200"/>
       <c r="F20" s="41"/>
       <c r="G20" s="42"/>
       <c r="H20" s="43"/>
@@ -4537,14 +4537,14 @@
       <c r="CZ20" s="59"/>
       <c r="DA20" s="59"/>
     </row>
-    <row r="21" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="21" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>11</v>
       </c>
-      <c r="B21" s="192"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="194"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="200"/>
       <c r="F21" s="41"/>
       <c r="G21" s="42"/>
       <c r="H21" s="43"/>
@@ -4676,14 +4676,14 @@
       <c r="CZ21" s="59"/>
       <c r="DA21" s="59"/>
     </row>
-    <row r="22" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="22" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>12</v>
       </c>
-      <c r="B22" s="192"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="194"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="200"/>
       <c r="F22" s="41"/>
       <c r="G22" s="42"/>
       <c r="H22" s="43"/>
@@ -4815,14 +4815,14 @@
       <c r="CZ22" s="59"/>
       <c r="DA22" s="59"/>
     </row>
-    <row r="23" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="23" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>13</v>
       </c>
-      <c r="B23" s="192"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="194"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="200"/>
       <c r="F23" s="41"/>
       <c r="G23" s="42"/>
       <c r="H23" s="43"/>
@@ -4954,14 +4954,14 @@
       <c r="CZ23" s="59"/>
       <c r="DA23" s="59"/>
     </row>
-    <row r="24" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="24" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>14</v>
       </c>
-      <c r="B24" s="192"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="194"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="200"/>
       <c r="F24" s="41"/>
       <c r="G24" s="42"/>
       <c r="H24" s="43"/>
@@ -5093,14 +5093,14 @@
       <c r="CZ24" s="59"/>
       <c r="DA24" s="59"/>
     </row>
-    <row r="25" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="25" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>15</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="194"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="200"/>
       <c r="F25" s="41"/>
       <c r="G25" s="42"/>
       <c r="H25" s="43"/>
@@ -5232,14 +5232,14 @@
       <c r="CZ25" s="59"/>
       <c r="DA25" s="59"/>
     </row>
-    <row r="26" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="26" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>16</v>
       </c>
-      <c r="B26" s="192"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="194"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="200"/>
       <c r="F26" s="41"/>
       <c r="G26" s="42"/>
       <c r="H26" s="43"/>
@@ -5371,14 +5371,14 @@
       <c r="CZ26" s="59"/>
       <c r="DA26" s="59"/>
     </row>
-    <row r="27" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="27" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>17</v>
       </c>
-      <c r="B27" s="192"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="194"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="200"/>
       <c r="F27" s="41"/>
       <c r="G27" s="42"/>
       <c r="H27" s="43"/>
@@ -5510,14 +5510,14 @@
       <c r="CZ27" s="59"/>
       <c r="DA27" s="59"/>
     </row>
-    <row r="28" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="28" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>18</v>
       </c>
-      <c r="B28" s="192"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="194"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="41"/>
       <c r="G28" s="42"/>
       <c r="H28" s="43"/>
@@ -5649,14 +5649,14 @@
       <c r="CZ28" s="59"/>
       <c r="DA28" s="59"/>
     </row>
-    <row r="29" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="29" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>19</v>
       </c>
-      <c r="B29" s="192"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="194"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="200"/>
       <c r="F29" s="41"/>
       <c r="G29" s="42"/>
       <c r="H29" s="43"/>
@@ -5788,14 +5788,14 @@
       <c r="CZ29" s="59"/>
       <c r="DA29" s="59"/>
     </row>
-    <row r="30" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="30" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>20</v>
       </c>
-      <c r="B30" s="192"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="194"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="200"/>
       <c r="F30" s="41"/>
       <c r="G30" s="42"/>
       <c r="H30" s="43"/>
@@ -5927,14 +5927,14 @@
       <c r="CZ30" s="59"/>
       <c r="DA30" s="59"/>
     </row>
-    <row r="31" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="31" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>21</v>
       </c>
-      <c r="B31" s="192"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="194"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="200"/>
       <c r="F31" s="41"/>
       <c r="G31" s="42"/>
       <c r="H31" s="43"/>
@@ -6066,14 +6066,14 @@
       <c r="CZ31" s="59"/>
       <c r="DA31" s="59"/>
     </row>
-    <row r="32" spans="1:105" s="59" customFormat="1" ht="18" customHeight="1">
+    <row r="32" spans="1:105" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>22</v>
       </c>
-      <c r="B32" s="192"/>
-      <c r="C32" s="193"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="194"/>
+      <c r="B32" s="198"/>
+      <c r="C32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="200"/>
       <c r="F32" s="41"/>
       <c r="G32" s="42"/>
       <c r="H32" s="43"/>
@@ -6147,14 +6147,14 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>23</v>
       </c>
-      <c r="B33" s="192"/>
-      <c r="C33" s="193"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="194"/>
+      <c r="B33" s="198"/>
+      <c r="C33" s="199"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="200"/>
       <c r="F33" s="41"/>
       <c r="G33" s="42"/>
       <c r="H33" s="43"/>
@@ -6286,14 +6286,14 @@
       <c r="CZ33" s="59"/>
       <c r="DA33" s="59"/>
     </row>
-    <row r="34" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="34" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>24</v>
       </c>
-      <c r="B34" s="192"/>
-      <c r="C34" s="193"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="194"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="200"/>
       <c r="F34" s="41"/>
       <c r="G34" s="42"/>
       <c r="H34" s="43"/>
@@ -6425,14 +6425,14 @@
       <c r="CZ34" s="59"/>
       <c r="DA34" s="59"/>
     </row>
-    <row r="35" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="35" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>25</v>
       </c>
-      <c r="B35" s="192"/>
-      <c r="C35" s="193"/>
-      <c r="D35" s="193"/>
-      <c r="E35" s="194"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="200"/>
       <c r="F35" s="41"/>
       <c r="G35" s="42"/>
       <c r="H35" s="43"/>
@@ -6564,14 +6564,14 @@
       <c r="CZ35" s="59"/>
       <c r="DA35" s="59"/>
     </row>
-    <row r="36" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="36" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>26</v>
       </c>
-      <c r="B36" s="192"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="193"/>
-      <c r="E36" s="194"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="200"/>
       <c r="F36" s="41"/>
       <c r="G36" s="42"/>
       <c r="H36" s="43"/>
@@ -6703,14 +6703,14 @@
       <c r="CZ36" s="59"/>
       <c r="DA36" s="59"/>
     </row>
-    <row r="37" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="37" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>27</v>
       </c>
-      <c r="B37" s="192"/>
-      <c r="C37" s="193"/>
-      <c r="D37" s="193"/>
-      <c r="E37" s="194"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="200"/>
       <c r="F37" s="41"/>
       <c r="G37" s="42"/>
       <c r="H37" s="43"/>
@@ -6842,14 +6842,14 @@
       <c r="CZ37" s="59"/>
       <c r="DA37" s="59"/>
     </row>
-    <row r="38" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="38" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>28</v>
       </c>
-      <c r="B38" s="192"/>
-      <c r="C38" s="193"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="194"/>
+      <c r="B38" s="198"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="200"/>
       <c r="F38" s="41"/>
       <c r="G38" s="42"/>
       <c r="H38" s="43"/>
@@ -6981,14 +6981,14 @@
       <c r="CZ38" s="59"/>
       <c r="DA38" s="59"/>
     </row>
-    <row r="39" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="39" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>29</v>
       </c>
-      <c r="B39" s="192"/>
-      <c r="C39" s="193"/>
-      <c r="D39" s="193"/>
-      <c r="E39" s="194"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="200"/>
       <c r="F39" s="41"/>
       <c r="G39" s="42"/>
       <c r="H39" s="43"/>
@@ -7120,14 +7120,14 @@
       <c r="CZ39" s="59"/>
       <c r="DA39" s="59"/>
     </row>
-    <row r="40" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="40" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>30</v>
       </c>
-      <c r="B40" s="192"/>
-      <c r="C40" s="193"/>
-      <c r="D40" s="193"/>
-      <c r="E40" s="194"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="200"/>
       <c r="F40" s="41"/>
       <c r="G40" s="42"/>
       <c r="H40" s="43"/>
@@ -7259,14 +7259,14 @@
       <c r="CZ40" s="59"/>
       <c r="DA40" s="59"/>
     </row>
-    <row r="41" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="41" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>31</v>
       </c>
-      <c r="B41" s="192"/>
-      <c r="C41" s="193"/>
-      <c r="D41" s="193"/>
-      <c r="E41" s="194"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="200"/>
       <c r="F41" s="41"/>
       <c r="G41" s="42"/>
       <c r="H41" s="43"/>
@@ -7398,14 +7398,14 @@
       <c r="CZ41" s="59"/>
       <c r="DA41" s="59"/>
     </row>
-    <row r="42" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="42" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>32</v>
       </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="193"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="194"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="200"/>
       <c r="F42" s="41"/>
       <c r="G42" s="42"/>
       <c r="H42" s="43"/>
@@ -7537,14 +7537,14 @@
       <c r="CZ42" s="59"/>
       <c r="DA42" s="59"/>
     </row>
-    <row r="43" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="43" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>33</v>
       </c>
-      <c r="B43" s="192"/>
-      <c r="C43" s="193"/>
-      <c r="D43" s="193"/>
-      <c r="E43" s="194"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="200"/>
       <c r="F43" s="41"/>
       <c r="G43" s="42"/>
       <c r="H43" s="43"/>
@@ -7676,14 +7676,14 @@
       <c r="CZ43" s="59"/>
       <c r="DA43" s="59"/>
     </row>
-    <row r="44" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="44" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>34</v>
       </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="193"/>
-      <c r="E44" s="194"/>
+      <c r="B44" s="198"/>
+      <c r="C44" s="199"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="200"/>
       <c r="F44" s="41"/>
       <c r="G44" s="42"/>
       <c r="H44" s="43"/>
@@ -7815,14 +7815,14 @@
       <c r="CZ44" s="59"/>
       <c r="DA44" s="59"/>
     </row>
-    <row r="45" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="45" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>35</v>
       </c>
-      <c r="B45" s="192"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="194"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
       <c r="F45" s="41"/>
       <c r="G45" s="42"/>
       <c r="H45" s="43"/>
@@ -7954,14 +7954,14 @@
       <c r="CZ45" s="59"/>
       <c r="DA45" s="59"/>
     </row>
-    <row r="46" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="46" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36</v>
       </c>
-      <c r="B46" s="192"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="194"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="199"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="200"/>
       <c r="F46" s="41"/>
       <c r="G46" s="42"/>
       <c r="H46" s="43"/>
@@ -8093,14 +8093,14 @@
       <c r="CZ46" s="59"/>
       <c r="DA46" s="59"/>
     </row>
-    <row r="47" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="47" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>37</v>
       </c>
-      <c r="B47" s="192"/>
-      <c r="C47" s="193"/>
-      <c r="D47" s="193"/>
-      <c r="E47" s="194"/>
+      <c r="B47" s="198"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="200"/>
       <c r="F47" s="41"/>
       <c r="G47" s="42"/>
       <c r="H47" s="43"/>
@@ -8232,14 +8232,14 @@
       <c r="CZ47" s="59"/>
       <c r="DA47" s="59"/>
     </row>
-    <row r="48" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="48" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>38</v>
       </c>
-      <c r="B48" s="192"/>
-      <c r="C48" s="193"/>
-      <c r="D48" s="193"/>
-      <c r="E48" s="194"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="199"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="200"/>
       <c r="F48" s="41"/>
       <c r="G48" s="42"/>
       <c r="H48" s="43"/>
@@ -8371,14 +8371,14 @@
       <c r="CZ48" s="59"/>
       <c r="DA48" s="59"/>
     </row>
-    <row r="49" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="49" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>39</v>
       </c>
-      <c r="B49" s="192"/>
-      <c r="C49" s="193"/>
-      <c r="D49" s="193"/>
-      <c r="E49" s="194"/>
+      <c r="B49" s="198"/>
+      <c r="C49" s="199"/>
+      <c r="D49" s="199"/>
+      <c r="E49" s="200"/>
       <c r="F49" s="41"/>
       <c r="G49" s="42"/>
       <c r="H49" s="43"/>
@@ -8510,14 +8510,14 @@
       <c r="CZ49" s="59"/>
       <c r="DA49" s="59"/>
     </row>
-    <row r="50" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="50" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>40</v>
       </c>
-      <c r="B50" s="192"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="194"/>
+      <c r="B50" s="198"/>
+      <c r="C50" s="199"/>
+      <c r="D50" s="199"/>
+      <c r="E50" s="200"/>
       <c r="F50" s="41"/>
       <c r="G50" s="42"/>
       <c r="H50" s="43"/>
@@ -8649,14 +8649,14 @@
       <c r="CZ50" s="59"/>
       <c r="DA50" s="59"/>
     </row>
-    <row r="51" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="51" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>41</v>
       </c>
-      <c r="B51" s="192"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="194"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="200"/>
       <c r="F51" s="41"/>
       <c r="G51" s="42"/>
       <c r="H51" s="43"/>
@@ -8788,14 +8788,14 @@
       <c r="CZ51" s="59"/>
       <c r="DA51" s="59"/>
     </row>
-    <row r="52" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="52" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>42</v>
       </c>
-      <c r="B52" s="192"/>
-      <c r="C52" s="193"/>
-      <c r="D52" s="193"/>
-      <c r="E52" s="194"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="199"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="200"/>
       <c r="F52" s="41"/>
       <c r="G52" s="42"/>
       <c r="H52" s="43"/>
@@ -8927,14 +8927,14 @@
       <c r="CZ52" s="59"/>
       <c r="DA52" s="59"/>
     </row>
-    <row r="53" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="53" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43</v>
       </c>
-      <c r="B53" s="192"/>
-      <c r="C53" s="193"/>
-      <c r="D53" s="193"/>
-      <c r="E53" s="194"/>
+      <c r="B53" s="198"/>
+      <c r="C53" s="199"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="200"/>
       <c r="F53" s="41"/>
       <c r="G53" s="42"/>
       <c r="H53" s="43"/>
@@ -9066,14 +9066,14 @@
       <c r="CZ53" s="59"/>
       <c r="DA53" s="59"/>
     </row>
-    <row r="54" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="54" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44</v>
       </c>
-      <c r="B54" s="192"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="194"/>
+      <c r="B54" s="198"/>
+      <c r="C54" s="199"/>
+      <c r="D54" s="199"/>
+      <c r="E54" s="200"/>
       <c r="F54" s="41"/>
       <c r="G54" s="42"/>
       <c r="H54" s="43"/>
@@ -9205,14 +9205,14 @@
       <c r="CZ54" s="59"/>
       <c r="DA54" s="59"/>
     </row>
-    <row r="55" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="55" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>45</v>
       </c>
-      <c r="B55" s="192"/>
-      <c r="C55" s="193"/>
-      <c r="D55" s="193"/>
-      <c r="E55" s="194"/>
+      <c r="B55" s="198"/>
+      <c r="C55" s="199"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="200"/>
       <c r="F55" s="41"/>
       <c r="G55" s="42"/>
       <c r="H55" s="43"/>
@@ -9344,14 +9344,14 @@
       <c r="CZ55" s="59"/>
       <c r="DA55" s="59"/>
     </row>
-    <row r="56" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="56" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>46</v>
       </c>
-      <c r="B56" s="192"/>
-      <c r="C56" s="193"/>
-      <c r="D56" s="193"/>
-      <c r="E56" s="194"/>
+      <c r="B56" s="198"/>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="200"/>
       <c r="F56" s="41"/>
       <c r="G56" s="42"/>
       <c r="H56" s="43"/>
@@ -9483,14 +9483,14 @@
       <c r="CZ56" s="59"/>
       <c r="DA56" s="59"/>
     </row>
-    <row r="57" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="57" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>47</v>
       </c>
-      <c r="B57" s="192"/>
-      <c r="C57" s="193"/>
-      <c r="D57" s="193"/>
-      <c r="E57" s="194"/>
+      <c r="B57" s="198"/>
+      <c r="C57" s="199"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="200"/>
       <c r="F57" s="41"/>
       <c r="G57" s="42"/>
       <c r="H57" s="43"/>
@@ -9622,14 +9622,14 @@
       <c r="CZ57" s="59"/>
       <c r="DA57" s="59"/>
     </row>
-    <row r="58" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="58" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>48</v>
       </c>
-      <c r="B58" s="192"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="193"/>
-      <c r="E58" s="194"/>
+      <c r="B58" s="198"/>
+      <c r="C58" s="199"/>
+      <c r="D58" s="199"/>
+      <c r="E58" s="200"/>
       <c r="F58" s="41"/>
       <c r="G58" s="42"/>
       <c r="H58" s="43"/>
@@ -9761,14 +9761,14 @@
       <c r="CZ58" s="59"/>
       <c r="DA58" s="59"/>
     </row>
-    <row r="59" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="59" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>49</v>
       </c>
-      <c r="B59" s="192"/>
-      <c r="C59" s="193"/>
-      <c r="D59" s="193"/>
-      <c r="E59" s="194"/>
+      <c r="B59" s="198"/>
+      <c r="C59" s="199"/>
+      <c r="D59" s="199"/>
+      <c r="E59" s="200"/>
       <c r="F59" s="41"/>
       <c r="G59" s="42"/>
       <c r="H59" s="43"/>
@@ -9900,14 +9900,14 @@
       <c r="CZ59" s="59"/>
       <c r="DA59" s="59"/>
     </row>
-    <row r="60" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="60" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="61">
         <v>50</v>
       </c>
-      <c r="B60" s="192"/>
-      <c r="C60" s="193"/>
-      <c r="D60" s="193"/>
-      <c r="E60" s="194"/>
+      <c r="B60" s="198"/>
+      <c r="C60" s="199"/>
+      <c r="D60" s="199"/>
+      <c r="E60" s="200"/>
       <c r="F60" s="62"/>
       <c r="G60" s="63"/>
       <c r="H60" s="64"/>
@@ -10039,7 +10039,7 @@
       <c r="CZ60" s="59"/>
       <c r="DA60" s="59"/>
     </row>
-    <row r="61" spans="1:105" s="27" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="61" spans="1:105" s="27" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="80"/>
       <c r="B61" s="81" t="s">
         <v>12</v>
@@ -10178,14 +10178,14 @@
       <c r="CZ61" s="26"/>
       <c r="DA61" s="26"/>
     </row>
-    <row r="62" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="62" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101">
         <v>1</v>
       </c>
-      <c r="B62" s="195"/>
-      <c r="C62" s="196"/>
-      <c r="D62" s="196"/>
-      <c r="E62" s="197"/>
+      <c r="B62" s="201"/>
+      <c r="C62" s="202"/>
+      <c r="D62" s="202"/>
+      <c r="E62" s="203"/>
       <c r="F62" s="102"/>
       <c r="G62" s="103"/>
       <c r="H62" s="104"/>
@@ -10317,14 +10317,14 @@
       <c r="CZ62" s="59"/>
       <c r="DA62" s="59"/>
     </row>
-    <row r="63" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="63" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>2</v>
       </c>
-      <c r="B63" s="192"/>
-      <c r="C63" s="193"/>
-      <c r="D63" s="193"/>
-      <c r="E63" s="194"/>
+      <c r="B63" s="198"/>
+      <c r="C63" s="199"/>
+      <c r="D63" s="199"/>
+      <c r="E63" s="200"/>
       <c r="F63" s="41"/>
       <c r="G63" s="42"/>
       <c r="H63" s="43"/>
@@ -10456,14 +10456,14 @@
       <c r="CZ63" s="59"/>
       <c r="DA63" s="59"/>
     </row>
-    <row r="64" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="64" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>3</v>
       </c>
-      <c r="B64" s="192"/>
-      <c r="C64" s="193"/>
-      <c r="D64" s="193"/>
-      <c r="E64" s="194"/>
+      <c r="B64" s="198"/>
+      <c r="C64" s="199"/>
+      <c r="D64" s="199"/>
+      <c r="E64" s="200"/>
       <c r="F64" s="41"/>
       <c r="G64" s="42"/>
       <c r="H64" s="43"/>
@@ -10595,14 +10595,14 @@
       <c r="CZ64" s="59"/>
       <c r="DA64" s="59"/>
     </row>
-    <row r="65" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="65" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>4</v>
       </c>
-      <c r="B65" s="192"/>
-      <c r="C65" s="193"/>
-      <c r="D65" s="193"/>
-      <c r="E65" s="194"/>
+      <c r="B65" s="198"/>
+      <c r="C65" s="199"/>
+      <c r="D65" s="199"/>
+      <c r="E65" s="200"/>
       <c r="F65" s="41"/>
       <c r="G65" s="42"/>
       <c r="H65" s="43"/>
@@ -10734,14 +10734,14 @@
       <c r="CZ65" s="59"/>
       <c r="DA65" s="59"/>
     </row>
-    <row r="66" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="66" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>5</v>
       </c>
-      <c r="B66" s="192"/>
-      <c r="C66" s="193"/>
-      <c r="D66" s="193"/>
-      <c r="E66" s="194"/>
+      <c r="B66" s="198"/>
+      <c r="C66" s="199"/>
+      <c r="D66" s="199"/>
+      <c r="E66" s="200"/>
       <c r="F66" s="41"/>
       <c r="G66" s="42"/>
       <c r="H66" s="43"/>
@@ -10873,14 +10873,14 @@
       <c r="CZ66" s="59"/>
       <c r="DA66" s="59"/>
     </row>
-    <row r="67" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="67" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>6</v>
       </c>
-      <c r="B67" s="192"/>
-      <c r="C67" s="193"/>
-      <c r="D67" s="193"/>
-      <c r="E67" s="194"/>
+      <c r="B67" s="198"/>
+      <c r="C67" s="199"/>
+      <c r="D67" s="199"/>
+      <c r="E67" s="200"/>
       <c r="F67" s="41"/>
       <c r="G67" s="42"/>
       <c r="H67" s="43"/>
@@ -11012,14 +11012,14 @@
       <c r="CZ67" s="59"/>
       <c r="DA67" s="59"/>
     </row>
-    <row r="68" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="68" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>7</v>
       </c>
-      <c r="B68" s="192"/>
-      <c r="C68" s="193"/>
-      <c r="D68" s="193"/>
-      <c r="E68" s="194"/>
+      <c r="B68" s="198"/>
+      <c r="C68" s="199"/>
+      <c r="D68" s="199"/>
+      <c r="E68" s="200"/>
       <c r="F68" s="41"/>
       <c r="G68" s="42"/>
       <c r="H68" s="43"/>
@@ -11151,14 +11151,14 @@
       <c r="CZ68" s="59"/>
       <c r="DA68" s="59"/>
     </row>
-    <row r="69" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="69" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>8</v>
       </c>
-      <c r="B69" s="192"/>
-      <c r="C69" s="193"/>
-      <c r="D69" s="193"/>
-      <c r="E69" s="194"/>
+      <c r="B69" s="198"/>
+      <c r="C69" s="199"/>
+      <c r="D69" s="199"/>
+      <c r="E69" s="200"/>
       <c r="F69" s="41"/>
       <c r="G69" s="42"/>
       <c r="H69" s="43"/>
@@ -11290,14 +11290,14 @@
       <c r="CZ69" s="59"/>
       <c r="DA69" s="59"/>
     </row>
-    <row r="70" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="70" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>9</v>
       </c>
-      <c r="B70" s="192"/>
-      <c r="C70" s="193"/>
-      <c r="D70" s="193"/>
-      <c r="E70" s="194"/>
+      <c r="B70" s="198"/>
+      <c r="C70" s="199"/>
+      <c r="D70" s="199"/>
+      <c r="E70" s="200"/>
       <c r="F70" s="41"/>
       <c r="G70" s="42"/>
       <c r="H70" s="43"/>
@@ -11429,14 +11429,14 @@
       <c r="CZ70" s="59"/>
       <c r="DA70" s="59"/>
     </row>
-    <row r="71" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="71" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>10</v>
       </c>
-      <c r="B71" s="192"/>
-      <c r="C71" s="193"/>
-      <c r="D71" s="193"/>
-      <c r="E71" s="194"/>
+      <c r="B71" s="198"/>
+      <c r="C71" s="199"/>
+      <c r="D71" s="199"/>
+      <c r="E71" s="200"/>
       <c r="F71" s="41"/>
       <c r="G71" s="42"/>
       <c r="H71" s="43"/>
@@ -11568,14 +11568,14 @@
       <c r="CZ71" s="59"/>
       <c r="DA71" s="59"/>
     </row>
-    <row r="72" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="72" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>11</v>
       </c>
-      <c r="B72" s="192"/>
-      <c r="C72" s="193"/>
-      <c r="D72" s="193"/>
-      <c r="E72" s="194"/>
+      <c r="B72" s="198"/>
+      <c r="C72" s="199"/>
+      <c r="D72" s="199"/>
+      <c r="E72" s="200"/>
       <c r="F72" s="41"/>
       <c r="G72" s="42"/>
       <c r="H72" s="43"/>
@@ -11707,14 +11707,14 @@
       <c r="CZ72" s="59"/>
       <c r="DA72" s="59"/>
     </row>
-    <row r="73" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="73" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>12</v>
       </c>
-      <c r="B73" s="192"/>
-      <c r="C73" s="193"/>
-      <c r="D73" s="193"/>
-      <c r="E73" s="194"/>
+      <c r="B73" s="198"/>
+      <c r="C73" s="199"/>
+      <c r="D73" s="199"/>
+      <c r="E73" s="200"/>
       <c r="F73" s="41"/>
       <c r="G73" s="42"/>
       <c r="H73" s="43"/>
@@ -11846,14 +11846,14 @@
       <c r="CZ73" s="59"/>
       <c r="DA73" s="59"/>
     </row>
-    <row r="74" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="74" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>13</v>
       </c>
-      <c r="B74" s="192"/>
-      <c r="C74" s="193"/>
-      <c r="D74" s="193"/>
-      <c r="E74" s="194"/>
+      <c r="B74" s="198"/>
+      <c r="C74" s="199"/>
+      <c r="D74" s="199"/>
+      <c r="E74" s="200"/>
       <c r="F74" s="41"/>
       <c r="G74" s="42"/>
       <c r="H74" s="43"/>
@@ -11985,14 +11985,14 @@
       <c r="CZ74" s="59"/>
       <c r="DA74" s="59"/>
     </row>
-    <row r="75" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="75" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>14</v>
       </c>
-      <c r="B75" s="192"/>
-      <c r="C75" s="193"/>
-      <c r="D75" s="193"/>
-      <c r="E75" s="194"/>
+      <c r="B75" s="198"/>
+      <c r="C75" s="199"/>
+      <c r="D75" s="199"/>
+      <c r="E75" s="200"/>
       <c r="F75" s="41"/>
       <c r="G75" s="42"/>
       <c r="H75" s="43"/>
@@ -12124,14 +12124,14 @@
       <c r="CZ75" s="59"/>
       <c r="DA75" s="59"/>
     </row>
-    <row r="76" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="76" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>15</v>
       </c>
-      <c r="B76" s="192"/>
-      <c r="C76" s="193"/>
-      <c r="D76" s="193"/>
-      <c r="E76" s="194"/>
+      <c r="B76" s="198"/>
+      <c r="C76" s="199"/>
+      <c r="D76" s="199"/>
+      <c r="E76" s="200"/>
       <c r="F76" s="41"/>
       <c r="G76" s="42"/>
       <c r="H76" s="43"/>
@@ -12263,14 +12263,14 @@
       <c r="CZ76" s="59"/>
       <c r="DA76" s="59"/>
     </row>
-    <row r="77" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="77" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>16</v>
       </c>
-      <c r="B77" s="192"/>
-      <c r="C77" s="193"/>
-      <c r="D77" s="193"/>
-      <c r="E77" s="194"/>
+      <c r="B77" s="198"/>
+      <c r="C77" s="199"/>
+      <c r="D77" s="199"/>
+      <c r="E77" s="200"/>
       <c r="F77" s="41"/>
       <c r="G77" s="42"/>
       <c r="H77" s="43"/>
@@ -12402,14 +12402,14 @@
       <c r="CZ77" s="59"/>
       <c r="DA77" s="59"/>
     </row>
-    <row r="78" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="78" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>17</v>
       </c>
-      <c r="B78" s="192"/>
-      <c r="C78" s="193"/>
-      <c r="D78" s="193"/>
-      <c r="E78" s="194"/>
+      <c r="B78" s="198"/>
+      <c r="C78" s="199"/>
+      <c r="D78" s="199"/>
+      <c r="E78" s="200"/>
       <c r="F78" s="41"/>
       <c r="G78" s="42"/>
       <c r="H78" s="43"/>
@@ -12541,14 +12541,14 @@
       <c r="CZ78" s="59"/>
       <c r="DA78" s="59"/>
     </row>
-    <row r="79" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="79" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>18</v>
       </c>
-      <c r="B79" s="192"/>
-      <c r="C79" s="193"/>
-      <c r="D79" s="193"/>
-      <c r="E79" s="194"/>
+      <c r="B79" s="198"/>
+      <c r="C79" s="199"/>
+      <c r="D79" s="199"/>
+      <c r="E79" s="200"/>
       <c r="F79" s="41"/>
       <c r="G79" s="42"/>
       <c r="H79" s="43"/>
@@ -12680,14 +12680,14 @@
       <c r="CZ79" s="59"/>
       <c r="DA79" s="59"/>
     </row>
-    <row r="80" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="80" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>19</v>
       </c>
-      <c r="B80" s="192"/>
-      <c r="C80" s="193"/>
-      <c r="D80" s="193"/>
-      <c r="E80" s="194"/>
+      <c r="B80" s="198"/>
+      <c r="C80" s="199"/>
+      <c r="D80" s="199"/>
+      <c r="E80" s="200"/>
       <c r="F80" s="41"/>
       <c r="G80" s="42"/>
       <c r="H80" s="43"/>
@@ -12819,14 +12819,14 @@
       <c r="CZ80" s="59"/>
       <c r="DA80" s="59"/>
     </row>
-    <row r="81" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="81" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>20</v>
       </c>
-      <c r="B81" s="192"/>
-      <c r="C81" s="193"/>
-      <c r="D81" s="193"/>
-      <c r="E81" s="194"/>
+      <c r="B81" s="198"/>
+      <c r="C81" s="199"/>
+      <c r="D81" s="199"/>
+      <c r="E81" s="200"/>
       <c r="F81" s="41"/>
       <c r="G81" s="42"/>
       <c r="H81" s="43"/>
@@ -12958,14 +12958,14 @@
       <c r="CZ81" s="59"/>
       <c r="DA81" s="59"/>
     </row>
-    <row r="82" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="82" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>21</v>
       </c>
-      <c r="B82" s="192"/>
-      <c r="C82" s="193"/>
-      <c r="D82" s="193"/>
-      <c r="E82" s="194"/>
+      <c r="B82" s="198"/>
+      <c r="C82" s="199"/>
+      <c r="D82" s="199"/>
+      <c r="E82" s="200"/>
       <c r="F82" s="41"/>
       <c r="G82" s="42"/>
       <c r="H82" s="43"/>
@@ -13097,14 +13097,14 @@
       <c r="CZ82" s="59"/>
       <c r="DA82" s="59"/>
     </row>
-    <row r="83" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="83" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>22</v>
       </c>
-      <c r="B83" s="192"/>
-      <c r="C83" s="193"/>
-      <c r="D83" s="193"/>
-      <c r="E83" s="194"/>
+      <c r="B83" s="198"/>
+      <c r="C83" s="199"/>
+      <c r="D83" s="199"/>
+      <c r="E83" s="200"/>
       <c r="F83" s="41"/>
       <c r="G83" s="42"/>
       <c r="H83" s="43"/>
@@ -13236,14 +13236,14 @@
       <c r="CZ83" s="59"/>
       <c r="DA83" s="59"/>
     </row>
-    <row r="84" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="84" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>23</v>
       </c>
-      <c r="B84" s="192"/>
-      <c r="C84" s="193"/>
-      <c r="D84" s="193"/>
-      <c r="E84" s="194"/>
+      <c r="B84" s="198"/>
+      <c r="C84" s="199"/>
+      <c r="D84" s="199"/>
+      <c r="E84" s="200"/>
       <c r="F84" s="41"/>
       <c r="G84" s="42"/>
       <c r="H84" s="43"/>
@@ -13375,14 +13375,14 @@
       <c r="CZ84" s="59"/>
       <c r="DA84" s="59"/>
     </row>
-    <row r="85" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="85" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>24</v>
       </c>
-      <c r="B85" s="192"/>
-      <c r="C85" s="193"/>
-      <c r="D85" s="193"/>
-      <c r="E85" s="194"/>
+      <c r="B85" s="198"/>
+      <c r="C85" s="199"/>
+      <c r="D85" s="199"/>
+      <c r="E85" s="200"/>
       <c r="F85" s="41"/>
       <c r="G85" s="42"/>
       <c r="H85" s="43"/>
@@ -13514,14 +13514,14 @@
       <c r="CZ85" s="59"/>
       <c r="DA85" s="59"/>
     </row>
-    <row r="86" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="86" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>25</v>
       </c>
-      <c r="B86" s="192"/>
-      <c r="C86" s="193"/>
-      <c r="D86" s="193"/>
-      <c r="E86" s="194"/>
+      <c r="B86" s="198"/>
+      <c r="C86" s="199"/>
+      <c r="D86" s="199"/>
+      <c r="E86" s="200"/>
       <c r="F86" s="41"/>
       <c r="G86" s="42"/>
       <c r="H86" s="43"/>
@@ -13653,14 +13653,14 @@
       <c r="CZ86" s="59"/>
       <c r="DA86" s="59"/>
     </row>
-    <row r="87" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="87" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>26</v>
       </c>
-      <c r="B87" s="192"/>
-      <c r="C87" s="193"/>
-      <c r="D87" s="193"/>
-      <c r="E87" s="194"/>
+      <c r="B87" s="198"/>
+      <c r="C87" s="199"/>
+      <c r="D87" s="199"/>
+      <c r="E87" s="200"/>
       <c r="F87" s="41"/>
       <c r="G87" s="42"/>
       <c r="H87" s="43"/>
@@ -13792,14 +13792,14 @@
       <c r="CZ87" s="59"/>
       <c r="DA87" s="59"/>
     </row>
-    <row r="88" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="88" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>27</v>
       </c>
-      <c r="B88" s="192"/>
-      <c r="C88" s="193"/>
-      <c r="D88" s="193"/>
-      <c r="E88" s="194"/>
+      <c r="B88" s="198"/>
+      <c r="C88" s="199"/>
+      <c r="D88" s="199"/>
+      <c r="E88" s="200"/>
       <c r="F88" s="41"/>
       <c r="G88" s="42"/>
       <c r="H88" s="43"/>
@@ -13931,14 +13931,14 @@
       <c r="CZ88" s="59"/>
       <c r="DA88" s="59"/>
     </row>
-    <row r="89" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="89" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>28</v>
       </c>
-      <c r="B89" s="192"/>
-      <c r="C89" s="193"/>
-      <c r="D89" s="193"/>
-      <c r="E89" s="194"/>
+      <c r="B89" s="198"/>
+      <c r="C89" s="199"/>
+      <c r="D89" s="199"/>
+      <c r="E89" s="200"/>
       <c r="F89" s="41"/>
       <c r="G89" s="42"/>
       <c r="H89" s="43"/>
@@ -14070,14 +14070,14 @@
       <c r="CZ89" s="59"/>
       <c r="DA89" s="59"/>
     </row>
-    <row r="90" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="90" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>29</v>
       </c>
-      <c r="B90" s="192"/>
-      <c r="C90" s="193"/>
-      <c r="D90" s="193"/>
-      <c r="E90" s="194"/>
+      <c r="B90" s="198"/>
+      <c r="C90" s="199"/>
+      <c r="D90" s="199"/>
+      <c r="E90" s="200"/>
       <c r="F90" s="41"/>
       <c r="G90" s="42"/>
       <c r="H90" s="43"/>
@@ -14209,14 +14209,14 @@
       <c r="CZ90" s="59"/>
       <c r="DA90" s="59"/>
     </row>
-    <row r="91" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="91" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>30</v>
       </c>
-      <c r="B91" s="192"/>
-      <c r="C91" s="193"/>
-      <c r="D91" s="193"/>
-      <c r="E91" s="194"/>
+      <c r="B91" s="198"/>
+      <c r="C91" s="199"/>
+      <c r="D91" s="199"/>
+      <c r="E91" s="200"/>
       <c r="F91" s="41"/>
       <c r="G91" s="42"/>
       <c r="H91" s="43"/>
@@ -14348,14 +14348,14 @@
       <c r="CZ91" s="59"/>
       <c r="DA91" s="59"/>
     </row>
-    <row r="92" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="92" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>31</v>
       </c>
-      <c r="B92" s="192"/>
-      <c r="C92" s="193"/>
-      <c r="D92" s="193"/>
-      <c r="E92" s="194"/>
+      <c r="B92" s="198"/>
+      <c r="C92" s="199"/>
+      <c r="D92" s="199"/>
+      <c r="E92" s="200"/>
       <c r="F92" s="41"/>
       <c r="G92" s="42"/>
       <c r="H92" s="43"/>
@@ -14487,14 +14487,14 @@
       <c r="CZ92" s="59"/>
       <c r="DA92" s="59"/>
     </row>
-    <row r="93" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="93" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>32</v>
       </c>
-      <c r="B93" s="192"/>
-      <c r="C93" s="193"/>
-      <c r="D93" s="193"/>
-      <c r="E93" s="194"/>
+      <c r="B93" s="198"/>
+      <c r="C93" s="199"/>
+      <c r="D93" s="199"/>
+      <c r="E93" s="200"/>
       <c r="F93" s="41"/>
       <c r="G93" s="42"/>
       <c r="H93" s="43"/>
@@ -14626,14 +14626,14 @@
       <c r="CZ93" s="59"/>
       <c r="DA93" s="59"/>
     </row>
-    <row r="94" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="94" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>33</v>
       </c>
-      <c r="B94" s="192"/>
-      <c r="C94" s="193"/>
-      <c r="D94" s="193"/>
-      <c r="E94" s="194"/>
+      <c r="B94" s="198"/>
+      <c r="C94" s="199"/>
+      <c r="D94" s="199"/>
+      <c r="E94" s="200"/>
       <c r="F94" s="41"/>
       <c r="G94" s="42"/>
       <c r="H94" s="43"/>
@@ -14765,14 +14765,14 @@
       <c r="CZ94" s="59"/>
       <c r="DA94" s="59"/>
     </row>
-    <row r="95" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="95" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>34</v>
       </c>
-      <c r="B95" s="192"/>
-      <c r="C95" s="193"/>
-      <c r="D95" s="193"/>
-      <c r="E95" s="194"/>
+      <c r="B95" s="198"/>
+      <c r="C95" s="199"/>
+      <c r="D95" s="199"/>
+      <c r="E95" s="200"/>
       <c r="F95" s="41"/>
       <c r="G95" s="42"/>
       <c r="H95" s="43"/>
@@ -14904,14 +14904,14 @@
       <c r="CZ95" s="59"/>
       <c r="DA95" s="59"/>
     </row>
-    <row r="96" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="96" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>35</v>
       </c>
-      <c r="B96" s="192"/>
-      <c r="C96" s="193"/>
-      <c r="D96" s="193"/>
-      <c r="E96" s="194"/>
+      <c r="B96" s="198"/>
+      <c r="C96" s="199"/>
+      <c r="D96" s="199"/>
+      <c r="E96" s="200"/>
       <c r="F96" s="41"/>
       <c r="G96" s="42"/>
       <c r="H96" s="43"/>
@@ -15043,14 +15043,14 @@
       <c r="CZ96" s="59"/>
       <c r="DA96" s="59"/>
     </row>
-    <row r="97" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="97" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>36</v>
       </c>
-      <c r="B97" s="192"/>
-      <c r="C97" s="193"/>
-      <c r="D97" s="193"/>
-      <c r="E97" s="194"/>
+      <c r="B97" s="198"/>
+      <c r="C97" s="199"/>
+      <c r="D97" s="199"/>
+      <c r="E97" s="200"/>
       <c r="F97" s="41"/>
       <c r="G97" s="42"/>
       <c r="H97" s="43"/>
@@ -15182,14 +15182,14 @@
       <c r="CZ97" s="59"/>
       <c r="DA97" s="59"/>
     </row>
-    <row r="98" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="98" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37</v>
       </c>
-      <c r="B98" s="192"/>
-      <c r="C98" s="193"/>
-      <c r="D98" s="193"/>
-      <c r="E98" s="194"/>
+      <c r="B98" s="198"/>
+      <c r="C98" s="199"/>
+      <c r="D98" s="199"/>
+      <c r="E98" s="200"/>
       <c r="F98" s="41"/>
       <c r="G98" s="42"/>
       <c r="H98" s="43"/>
@@ -15321,14 +15321,14 @@
       <c r="CZ98" s="59"/>
       <c r="DA98" s="59"/>
     </row>
-    <row r="99" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="99" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38</v>
       </c>
-      <c r="B99" s="192"/>
-      <c r="C99" s="193"/>
-      <c r="D99" s="193"/>
-      <c r="E99" s="194"/>
+      <c r="B99" s="198"/>
+      <c r="C99" s="199"/>
+      <c r="D99" s="199"/>
+      <c r="E99" s="200"/>
       <c r="F99" s="41"/>
       <c r="G99" s="42"/>
       <c r="H99" s="43"/>
@@ -15460,14 +15460,14 @@
       <c r="CZ99" s="59"/>
       <c r="DA99" s="59"/>
     </row>
-    <row r="100" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="100" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>39</v>
       </c>
-      <c r="B100" s="192"/>
-      <c r="C100" s="193"/>
-      <c r="D100" s="193"/>
-      <c r="E100" s="194"/>
+      <c r="B100" s="198"/>
+      <c r="C100" s="199"/>
+      <c r="D100" s="199"/>
+      <c r="E100" s="200"/>
       <c r="F100" s="41"/>
       <c r="G100" s="42"/>
       <c r="H100" s="43"/>
@@ -15599,14 +15599,14 @@
       <c r="CZ100" s="59"/>
       <c r="DA100" s="59"/>
     </row>
-    <row r="101" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="101" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>40</v>
       </c>
-      <c r="B101" s="192"/>
-      <c r="C101" s="193"/>
-      <c r="D101" s="193"/>
-      <c r="E101" s="194"/>
+      <c r="B101" s="198"/>
+      <c r="C101" s="199"/>
+      <c r="D101" s="199"/>
+      <c r="E101" s="200"/>
       <c r="F101" s="41"/>
       <c r="G101" s="42"/>
       <c r="H101" s="43"/>
@@ -15738,14 +15738,14 @@
       <c r="CZ101" s="59"/>
       <c r="DA101" s="59"/>
     </row>
-    <row r="102" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="102" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>41</v>
       </c>
-      <c r="B102" s="192"/>
-      <c r="C102" s="193"/>
-      <c r="D102" s="193"/>
-      <c r="E102" s="194"/>
+      <c r="B102" s="198"/>
+      <c r="C102" s="199"/>
+      <c r="D102" s="199"/>
+      <c r="E102" s="200"/>
       <c r="F102" s="41"/>
       <c r="G102" s="42"/>
       <c r="H102" s="43"/>
@@ -15877,14 +15877,14 @@
       <c r="CZ102" s="59"/>
       <c r="DA102" s="59"/>
     </row>
-    <row r="103" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="103" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>42</v>
       </c>
-      <c r="B103" s="192"/>
-      <c r="C103" s="193"/>
-      <c r="D103" s="193"/>
-      <c r="E103" s="194"/>
+      <c r="B103" s="198"/>
+      <c r="C103" s="199"/>
+      <c r="D103" s="199"/>
+      <c r="E103" s="200"/>
       <c r="F103" s="41"/>
       <c r="G103" s="42"/>
       <c r="H103" s="43"/>
@@ -16016,14 +16016,14 @@
       <c r="CZ103" s="59"/>
       <c r="DA103" s="59"/>
     </row>
-    <row r="104" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="104" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>43</v>
       </c>
-      <c r="B104" s="192"/>
-      <c r="C104" s="193"/>
-      <c r="D104" s="193"/>
-      <c r="E104" s="194"/>
+      <c r="B104" s="198"/>
+      <c r="C104" s="199"/>
+      <c r="D104" s="199"/>
+      <c r="E104" s="200"/>
       <c r="F104" s="41"/>
       <c r="G104" s="42"/>
       <c r="H104" s="43"/>
@@ -16155,14 +16155,14 @@
       <c r="CZ104" s="59"/>
       <c r="DA104" s="59"/>
     </row>
-    <row r="105" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="105" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>44</v>
       </c>
-      <c r="B105" s="192"/>
-      <c r="C105" s="193"/>
-      <c r="D105" s="193"/>
-      <c r="E105" s="194"/>
+      <c r="B105" s="198"/>
+      <c r="C105" s="199"/>
+      <c r="D105" s="199"/>
+      <c r="E105" s="200"/>
       <c r="F105" s="41"/>
       <c r="G105" s="42"/>
       <c r="H105" s="43"/>
@@ -16294,14 +16294,14 @@
       <c r="CZ105" s="59"/>
       <c r="DA105" s="59"/>
     </row>
-    <row r="106" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="106" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45</v>
       </c>
-      <c r="B106" s="192"/>
-      <c r="C106" s="193"/>
-      <c r="D106" s="193"/>
-      <c r="E106" s="194"/>
+      <c r="B106" s="198"/>
+      <c r="C106" s="199"/>
+      <c r="D106" s="199"/>
+      <c r="E106" s="200"/>
       <c r="F106" s="41"/>
       <c r="G106" s="42"/>
       <c r="H106" s="43"/>
@@ -16433,14 +16433,14 @@
       <c r="CZ106" s="59"/>
       <c r="DA106" s="59"/>
     </row>
-    <row r="107" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="107" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>46</v>
       </c>
-      <c r="B107" s="192"/>
-      <c r="C107" s="193"/>
-      <c r="D107" s="193"/>
-      <c r="E107" s="194"/>
+      <c r="B107" s="198"/>
+      <c r="C107" s="199"/>
+      <c r="D107" s="199"/>
+      <c r="E107" s="200"/>
       <c r="F107" s="41"/>
       <c r="G107" s="42"/>
       <c r="H107" s="43"/>
@@ -16572,14 +16572,14 @@
       <c r="CZ107" s="59"/>
       <c r="DA107" s="59"/>
     </row>
-    <row r="108" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="108" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>47</v>
       </c>
-      <c r="B108" s="192"/>
-      <c r="C108" s="193"/>
-      <c r="D108" s="193"/>
-      <c r="E108" s="194"/>
+      <c r="B108" s="198"/>
+      <c r="C108" s="199"/>
+      <c r="D108" s="199"/>
+      <c r="E108" s="200"/>
       <c r="F108" s="41"/>
       <c r="G108" s="42"/>
       <c r="H108" s="43"/>
@@ -16711,14 +16711,14 @@
       <c r="CZ108" s="59"/>
       <c r="DA108" s="59"/>
     </row>
-    <row r="109" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="109" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>48</v>
       </c>
-      <c r="B109" s="192"/>
-      <c r="C109" s="193"/>
-      <c r="D109" s="193"/>
-      <c r="E109" s="194"/>
+      <c r="B109" s="198"/>
+      <c r="C109" s="199"/>
+      <c r="D109" s="199"/>
+      <c r="E109" s="200"/>
       <c r="F109" s="41"/>
       <c r="G109" s="42"/>
       <c r="H109" s="43"/>
@@ -16850,14 +16850,14 @@
       <c r="CZ109" s="59"/>
       <c r="DA109" s="59"/>
     </row>
-    <row r="110" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1">
+    <row r="110" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>49</v>
       </c>
-      <c r="B110" s="192"/>
-      <c r="C110" s="193"/>
-      <c r="D110" s="193"/>
-      <c r="E110" s="194"/>
+      <c r="B110" s="198"/>
+      <c r="C110" s="199"/>
+      <c r="D110" s="199"/>
+      <c r="E110" s="200"/>
       <c r="F110" s="41"/>
       <c r="G110" s="42"/>
       <c r="H110" s="43"/>
@@ -16989,14 +16989,14 @@
       <c r="CZ110" s="59"/>
       <c r="DA110" s="59"/>
     </row>
-    <row r="111" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="111" spans="1:105" s="60" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="120">
         <v>50</v>
       </c>
-      <c r="B111" s="192"/>
-      <c r="C111" s="193"/>
-      <c r="D111" s="193"/>
-      <c r="E111" s="194"/>
+      <c r="B111" s="198"/>
+      <c r="C111" s="199"/>
+      <c r="D111" s="199"/>
+      <c r="E111" s="200"/>
       <c r="F111" s="121"/>
       <c r="G111" s="122"/>
       <c r="H111" s="123"/>
@@ -17128,7 +17128,7 @@
       <c r="CZ111" s="59"/>
       <c r="DA111" s="59"/>
     </row>
-    <row r="112" spans="1:105">
+    <row r="112" spans="1:105" x14ac:dyDescent="0.2">
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
@@ -17137,6 +17137,120 @@
     </row>
   </sheetData>
   <mergeCells count="138">
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AR8"/>
     <mergeCell ref="B1:AU1"/>
     <mergeCell ref="AT7:AT9"/>
     <mergeCell ref="F7:J7"/>
@@ -17161,120 +17275,6 @@
     <mergeCell ref="AK5:AP5"/>
     <mergeCell ref="AU7:AU9"/>
     <mergeCell ref="A7:E9"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B106:E106"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
